--- a/src/test/resources/docs/BankFile.xlsx
+++ b/src/test/resources/docs/BankFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Bank Name:</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>7.848.00</t>
+  </si>
+  <si>
+    <t>01-25-2019 17:17:10</t>
+  </si>
+  <si>
+    <t>FT19012500004</t>
+  </si>
+  <si>
+    <t>20190125044036506</t>
+  </si>
+  <si>
+    <t>Regression daysixtw</t>
   </si>
 </sst>
 </file>
@@ -607,19 +619,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>

--- a/src/test/resources/docs/BankFile.xlsx
+++ b/src/test/resources/docs/BankFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Bank Name:</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Regression daysixtw</t>
+  </si>
+  <si>
+    <t>02-19-2019 18:51:51</t>
+  </si>
+  <si>
+    <t>FT19021900039</t>
+  </si>
+  <si>
+    <t>20190219041910569</t>
+  </si>
+  <si>
+    <t>Automation FIftyfour</t>
+  </si>
+  <si>
+    <t>02-19-2019 18:57:57</t>
+  </si>
+  <si>
+    <t>FT19021900040</t>
   </si>
 </sst>
 </file>
@@ -619,19 +637,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>

--- a/src/test/resources/docs/BankFile.xlsx
+++ b/src/test/resources/docs/BankFile.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DRC-Automation\src\test\resources\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DRC Merge Regreation\DRC-Automation\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A3EDC-273D-4DC6-BC4D-247F1BDEDA87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11E07A-7C58-4BD0-9022-BD5470C2132D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="10515" xr2:uid="{8CF704FE-2400-465E-B060-6F37E9B3C5EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CF704FE-2400-465E-B060-6F37E9B3C5EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Bank Name:</t>
   </si>
@@ -60,99 +60,38 @@
     <t>TaxPyrName</t>
   </si>
   <si>
-    <t>432423-Access branch</t>
-  </si>
-  <si>
     <t>Advans Bank</t>
   </si>
   <si>
-    <t>FT19012200002</t>
-  </si>
-  <si>
-    <t>20190122114111774</t>
-  </si>
-  <si>
-    <t>Regression twotwo</t>
-  </si>
-  <si>
-    <t>107590.00</t>
-  </si>
-  <si>
     <t>Received Date:</t>
   </si>
   <si>
-    <t>12345Trq</t>
-  </si>
-  <si>
     <t>18042600001632</t>
   </si>
   <si>
-    <t>22-07-2019 16:45:00</t>
-  </si>
-  <si>
-    <t>FT19012300007</t>
-  </si>
-  <si>
-    <t>20190123013852837</t>
-  </si>
-  <si>
-    <t>Automation Six</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>01-25-2019 12:02:46</t>
-  </si>
-  <si>
-    <t>FT19012500001</t>
-  </si>
-  <si>
-    <t>20190124050334123</t>
-  </si>
-  <si>
-    <t>Regression dayfivemo</t>
-  </si>
-  <si>
     <t>7.848.00</t>
   </si>
   <si>
-    <t>01-25-2019 17:17:10</t>
-  </si>
-  <si>
-    <t>FT19012500004</t>
-  </si>
-  <si>
-    <t>20190125044036506</t>
-  </si>
-  <si>
-    <t>Regression daysixtw</t>
-  </si>
-  <si>
-    <t>02-19-2019 18:51:51</t>
-  </si>
-  <si>
-    <t>FT19021900039</t>
-  </si>
-  <si>
-    <t>20190219041910569</t>
-  </si>
-  <si>
-    <t>Automation FIftyfour</t>
-  </si>
-  <si>
-    <t>02-19-2019 18:57:57</t>
-  </si>
-  <si>
-    <t>FT19021900040</t>
+    <t>03-06-2019 15:46:42</t>
+  </si>
+  <si>
+    <t>FT19021900019</t>
+  </si>
+  <si>
+    <t>20190219030117868</t>
+  </si>
+  <si>
+    <t>Automation TestFour</t>
+  </si>
+  <si>
+    <t>Branch4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,19 +472,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -555,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
+      <c r="D1" s="4">
+        <v>43668.697916666664</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -569,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -607,52 +545,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43636.697916666664</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43638</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/docs/BankFile.xlsx
+++ b/src/test/resources/docs/BankFile.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Bank Name:</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>FT19021900040</t>
+  </si>
+  <si>
+    <t>03-02-2019 11:24:16</t>
+  </si>
+  <si>
+    <t>FT19030200001</t>
+  </si>
+  <si>
+    <t>20190302105803474</t>
+  </si>
+  <si>
+    <t>Regression DecMon</t>
+  </si>
+  <si>
+    <t>03-11-2019 20:33:38</t>
+  </si>
+  <si>
+    <t>FT19031100001</t>
+  </si>
+  <si>
+    <t>20190311080735016</t>
+  </si>
+  <si>
+    <t>Regression MarchMons</t>
   </si>
 </sst>
 </file>
@@ -637,19 +661,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
